--- a/attendancesystem/attendance.xlsx
+++ b/attendancesystem/attendance.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +668,1011 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-04-08 11:07:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>91.55</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>95.95999999999999</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>96.37</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>96.48</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>84.79000000000001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>99</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>89.41</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>95.44</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>97.36</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.39</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>95.68000000000001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>93.94</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>86.45999999999999</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>55.11</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>68.06</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>99.97</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>100</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>100</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>100</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>100</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>100</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>100</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>83.86</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>63.35</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>83.20999999999999</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>81.58</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>89.11</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>99</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:04:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>jayant</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>pratham</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-04-14 16:05:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>100</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-06-08 14:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>100</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-06-08 14:43:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pranshu</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>100</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-06-08 15:21:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
